--- a/data-raw/mean_rgdp10_level.xlsx
+++ b/data-raw/mean_rgdp10_level.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="4">
   <si>
     <t>YEAR</t>
   </si>
@@ -213,7 +213,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -2712,7 +2712,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" ht="13" customHeight="1"/>
+    <row r="227" ht="15" customHeight="1">
+      <c r="A227" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B227" s="3">
+        <v>1.0000</v>
+      </c>
+      <c r="C227" s="4">
+        <v>2.1044</v>
+      </c>
+    </row>
+    <row r="228" ht="15" customHeight="1">
+      <c r="A228" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B228" s="3">
+        <v>2.0000</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" ht="13" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/data-raw/mean_rgdp10_level.xlsx
+++ b/data-raw/mean_rgdp10_level.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="4">
   <si>
     <t>YEAR</t>
   </si>
@@ -213,7 +213,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -2734,7 +2734,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" ht="13" customHeight="1"/>
+    <row r="229" ht="15" customHeight="1">
+      <c r="A229" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B229" s="3">
+        <v>3.0000</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" ht="13" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/data-raw/mean_rgdp10_level.xlsx
+++ b/data-raw/mean_rgdp10_level.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="4">
   <si>
     <t>YEAR</t>
   </si>
@@ -213,7 +213,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -2745,7 +2745,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" ht="13" customHeight="1"/>
+    <row r="230" ht="15" customHeight="1">
+      <c r="A230" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B230" s="3">
+        <v>4.0000</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" ht="13" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
